--- a/Example Summary - IAG and AL Results and Ratings.xlsx
+++ b/Example Summary - IAG and AL Results and Ratings.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luria\PycharmProjects\AuditQAStudio2\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee8d3d5c28cf10e6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D477FB-218B-48C1-AA60-BCAB5F84907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{83D477FB-218B-48C1-AA60-BCAB5F84907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50BC0E5-765A-452C-B7AF-ACC3A69DCD57}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4027C12-BE58-4920-B07A-94405037821E}"/>
   </bookViews>
   <sheets>
     <sheet name="IAG and AL Results and Ratings" sheetId="1" r:id="rId1"/>
-    <sheet name="QA-ID-70" sheetId="3" r:id="rId2"/>
+    <sheet name="EXAMPLE Test Summary - QA-ID-70" sheetId="3" r:id="rId2"/>
     <sheet name="Configuration" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="138">
   <si>
     <t>Audit Leader Overall Results and Ratings</t>
   </si>
@@ -187,9 +187,6 @@
     <t>QA Review Year and Review Name</t>
   </si>
   <si>
-    <t>Continues like columns D&amp; E with columns for each test basically.</t>
-  </si>
-  <si>
     <t>Overall Audit Leader Rating</t>
   </si>
   <si>
@@ -244,12 +241,6 @@
     <t>QA-ID-2</t>
   </si>
   <si>
-    <t>QA-ID-3</t>
-  </si>
-  <si>
-    <t>QA-ID-4</t>
-  </si>
-  <si>
     <t>Analytic ID / Sub-Area</t>
   </si>
   <si>
@@ -272,9 +263,6 @@
   </si>
   <si>
     <t>Analytic Title:</t>
-  </si>
-  <si>
-    <t>Title of analytic (Short version of the rule (e.g. Audit Entity IT or IS Level 1 Risk is High or Critical with 0 Applications Mapped)</t>
   </si>
   <si>
     <t>QA Analytic ID:</t>
@@ -494,10 +482,16 @@
     <t>To be filled in by QA Reviewer after reviewing the analytic results</t>
   </si>
   <si>
-    <t>Continues like column D with columns for each test basically.</t>
-  </si>
-  <si>
     <t>Manual Testing, Not analytic related</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Title of analytic (Short version description of the rule (e.g. Audit Entity IT or IS Level 1 Risk is High or Critical with 0 Applications Mapped)</t>
+  </si>
+  <si>
+    <t>Rule 2 Title / Name</t>
   </si>
 </sst>
 </file>
@@ -821,15 +815,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -859,15 +849,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -881,7 +865,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -900,13 +884,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -918,9 +896,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,375 +906,24 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1751,6 +1375,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2070,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D0754-8EF4-4F69-A15C-120EABD201FE}">
-  <dimension ref="B2:N34"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2082,959 +1710,756 @@
     <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="26.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="19" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="11.85546875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="26.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="11.85546875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="26.25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:10" ht="26.25">
+      <c r="B2" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27" customHeight="1">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:10" ht="27" customHeight="1">
+      <c r="B4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="25" t="s">
+      <c r="F4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="26" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="J4" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="28.5" customHeight="1">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:10" ht="28.5" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="20">
+      <c r="C5" s="9"/>
+      <c r="D5" s="18">
         <f>SUM(D6:D8)</f>
         <v>18</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <f>SUM(E6:E8)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="28" t="s">
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10">
+      <c r="C6" s="9"/>
+      <c r="D6" s="8">
         <f>COUNTIF(D$31:D$34,"GC")*Configuration!$C3</f>
         <v>10</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <f>COUNTIF(E$31:E$34,"GC")*Configuration!$C3</f>
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="28" t="s">
+      <c r="H6" s="14"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10">
+      <c r="C7" s="9"/>
+      <c r="D7" s="8">
         <f>COUNTIF(D$31:D$34,"GC")*Configuration!$C4</f>
         <v>6</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f>COUNTIF(E$31:E$34,"GC")*Configuration!$C4</f>
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="28" t="s">
+      <c r="H7" s="14"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="8">
         <f>COUNTIF(D$31:D$34,"GC")*Configuration!$C5</f>
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <f>COUNTIF(E$31:E$34,"GC")*Configuration!$C5</f>
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="28" t="s">
+      <c r="H8" s="14"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10">
+      <c r="C9" s="9"/>
+      <c r="D9" s="8">
         <f>COUNTIF(D31:D34,"&lt;&gt;N/A")</f>
         <v>4</v>
       </c>
-      <c r="E9" s="10">
-        <f>COUNTIF(E31:E34,"&lt;&gt;N/A")</f>
-        <v>4</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="E9" s="8">
+        <f>COUNTIF(E31:E34,OR(NOT(_xleta.ISBLANK),"&lt;&gt;N/A"))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="8" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10">
+      <c r="C10" s="9"/>
+      <c r="D10" s="8">
         <f>IF(D9=0,"N/A",IFERROR(D5/D9,0))</f>
         <v>4.5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8" t="str">
         <f>IF(E9=0,"N/A",IFERROR(E5/E9,0))</f>
+        <v>N/A</v>
+      </c>
+      <c r="F10" s="8" t="str" cm="1">
+        <f t="array" ref="F10">IFERROR(SUM(D10:E10/COUNT(D10:E10)),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="G10" s="8" t="str" cm="1">
+        <f t="array" ref="G10">_xlfn.IFS(
+  F10 = "N/A", "N/A",
+  F10 &gt;= 4, "GC",
+  F10 &lt; 2.5, "DNC",
+  TRUE, "PC"
+)</f>
+        <v>N/A</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="20" t="str">
+        <f>IF(D10="N/A",Configuration!C6, IF(D10&gt;3.9, "GC", IF(D10&lt;2.5, "DNC", "PC")))</f>
+        <v>GC</v>
+      </c>
+      <c r="E11" s="20" t="str">
+        <f>IF(E10="N/A",Configuration!B6, IF(E10&gt;3.9, "GC", IF(E10&lt;2.5, "DNC", "PC")))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18">
+      <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7" cm="1">
-        <f t="array" ref="H10">SUM(D10:G10/COUNT(D10:G10))</f>
-        <v>2.25</v>
-      </c>
-      <c r="I10" s="10" t="str" cm="1">
-        <f t="array" ref="I10">_xlfn.IFS(
-  H10 = Configuration!$B$6, Configuration!$B$6,
-  H10 &gt;= Configuration!$D$3, Configuration!$B$3,
-  H10 &lt; Configuration!$D$4, Configuration!$B$5,
+      <c r="F13" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="2:10" ht="31.5" customHeight="1">
+      <c r="B14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="25">
+        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B15)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B15)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B15)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B15)*Configuration!$C$6)</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="25">
+        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B15)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B15)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B15)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B15)*Configuration!$C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <f>IF(SUM(D15:E15)=0, "N/A", SUM(D15:E15)/SUMIF(D15:E15,"&lt;&gt;0",D$25:E$25))</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G15" s="8" t="str" cm="1">
+        <f t="array" ref="G15">_xlfn.IFS(
+  F15 = Configuration!$B$6, Configuration!$B$6,
+  F15 &gt;= Configuration!$D$3, Configuration!$B$3,
+  F15 &lt; Configuration!$D$4, Configuration!$B$5,
   TRUE, Configuration!$B$4
 )</f>
         <v>GC</v>
       </c>
-      <c r="J10" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="H15" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="22" t="str">
-        <f>IF(D10="N/A",Configuration!C6, IF(D10&gt;3.9, "GC", IF(D10&lt;2.5, "DNC", "PC")))</f>
-        <v>GC</v>
-      </c>
-      <c r="E11" s="22" t="str">
-        <f>IF(E10="N/A",Configuration!D6, IF(E10&gt;3.9, "GC", IF(E10&lt;2.5, "DNC", "PC")))</f>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="25">
+        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B16)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B16)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B16)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B16)*Configuration!$C$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
+        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B16)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B16)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B16)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B16)*Configuration!$C$6)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f>IF(SUM(D16:E16)=0, "N/A", SUM(D16:E16)/SUMIF(D16:E16,"&lt;&gt;0",D$25:E$25))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G16" s="8" t="str" cm="1">
+        <f t="array" ref="G16">_xlfn.IFS(
+  F16 = Configuration!$B$6, Configuration!$B$6,
+  F16 &gt;= Configuration!$D$3, Configuration!$B$3,
+  F16 &lt; Configuration!$D$4, Configuration!$B$5,
+  TRUE, Configuration!$B$4
+)</f>
         <v>DNC</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="13" spans="2:12" ht="18">
-      <c r="B13" s="23" t="s">
+      <c r="H16" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="25">
+        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B17)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B17)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B17)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B17)*Configuration!$C$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="25">
+        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B17)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B17)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B17)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B17)*Configuration!$C$6)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="2:12" ht="31.5" customHeight="1">
-      <c r="B14" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="F17" s="8">
+        <f>IF(SUM(D17:E17)=0, "N/A", SUM(D17:E17)/SUMIF(D17:E17,"&lt;&gt;0",D$25:E$25))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G17" s="8" t="str" cm="1">
+        <f t="array" ref="G17">_xlfn.IFS(
+  F17 = Configuration!$B$6, Configuration!$B$6,
+  F17 &gt;= Configuration!$D$3, Configuration!$B$3,
+  F17 &lt; Configuration!$D$4, Configuration!$B$5,
+  TRUE, Configuration!$B$4
+)</f>
+        <v>DNC</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="29">
-        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B15)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B15)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B15)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B15)*Configuration!$C$6)</f>
+      <c r="D18" s="25">
+        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B18)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B18)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B18)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B18)*Configuration!$C$6)</f>
         <v>5</v>
       </c>
-      <c r="E15" s="29">
-        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B15)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B15)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B15)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B15)*Configuration!$C$6)</f>
+      <c r="E18" s="25">
+        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B18)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B18)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B18)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B18)*Configuration!$C$6)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <f>(COUNTIFS(F$31:F$35,Configuration!$B$3,$B$31:$B$35,$B15)*Configuration!$C$3) + (COUNTIFS(F$31:F$35,Configuration!$B$4,$B$31:$B$35,$B15)*Configuration!$C$4) + (COUNTIFS(F$31:F$35,Configuration!$B$5,$B$31:$B$35,$B15)*Configuration!$C$5) + (COUNTIFS(F$31:F$35,Configuration!$B$6,$B$31:$B$35,$B15)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <f>(COUNTIFS(G$31:G$35,Configuration!$B$3,$B$31:$B$35,$B15)*Configuration!$C$3) + (COUNTIFS(G$31:G$35,Configuration!$B$4,$B$31:$B$35,$B15)*Configuration!$C$4) + (COUNTIFS(G$31:G$35,Configuration!$B$5,$B$31:$B$35,$B15)*Configuration!$C$5) + (COUNTIFS(G$31:G$35,Configuration!$B$6,$B$31:$B$35,$B15)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <f>IF(SUM(D15:G15)=0, "N/A", SUM(D15:G15)/SUMIF(D15:G15,"&lt;&gt;0",D$25:G$25))</f>
+      <c r="F18" s="8">
+        <f>IF(SUM(D18:E18)=0, "N/A", SUM(D18:E18)/SUMIF(D18:E18,"&lt;&gt;0",D$25:E$25))</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I15" s="10" t="str" cm="1">
-        <f t="array" ref="I15">_xlfn.IFS(
-  H15 = Configuration!$B$6, Configuration!$B$6,
-  H15 &gt;= Configuration!$D$3, Configuration!$B$3,
-  H15 &lt; Configuration!$D$4, Configuration!$B$5,
+      <c r="G18" s="8" t="str" cm="1">
+        <f t="array" ref="G18">_xlfn.IFS(
+  F18 = Configuration!$B$6, Configuration!$B$6,
+  F18 &gt;= Configuration!$D$3, Configuration!$B$3,
+  F18 &lt; Configuration!$D$4, Configuration!$B$5,
   TRUE, Configuration!$B$4
 )</f>
         <v>GC</v>
       </c>
-      <c r="J15" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="10" t="s">
+      <c r="H18" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="54"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="28" t="s">
+      <c r="J18" s="47"/>
+    </row>
+    <row r="21" spans="2:12" ht="18">
+      <c r="B21" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="18">
+      <c r="B22" s="21"/>
+      <c r="C22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="2:12" ht="18">
+      <c r="B23" s="21"/>
+      <c r="C23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="2:12" ht="18">
+      <c r="B24" s="21"/>
+      <c r="C24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="2:12" ht="18">
+      <c r="B25" s="21"/>
+      <c r="C25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="30">
+        <v>3</v>
+      </c>
+      <c r="E25" s="30">
+        <v>3</v>
+      </c>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="C26" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="C27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="C28" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="C29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="2:12" ht="38.25">
+      <c r="B30" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f>IFERROR(VLOOKUP($B31,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
+        <v>GC</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="5">
+        <f>COUNTIF($D31:$E31,"GC")</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <f>COUNTIF($D31:$E31,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f>COUNTIF($D31:$E31,"DNC")</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>SUM(G31:I31)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="46">
+        <f>IF(OR(J31=0, Configuration!$C$3=0), "N/A", ((G31*Configuration!$C$3) + (H31*Configuration!$C$4) + (I31*Configuration!$C$5)) / (J31*Configuration!$C$3))</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="8" t="str" cm="1">
+        <f t="array" ref="L31">_xlfn.IFS(
+  K31 = Configuration!$B$6, Configuration!$B$6,
+  K31 &gt;= Configuration!$D$3, Configuration!$B$3,
+  K31 &lt; Configuration!$D$4, Configuration!$B$5,
+  TRUE, Configuration!$B$4
+)</f>
+        <v>GC</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="29">
-        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B16)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B16)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B16)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B16)*Configuration!$C$6)</f>
+      <c r="C32" s="24">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f>IFERROR(VLOOKUP($B32,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
+        <v>DNC</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5">
+        <f>COUNTIF($D32:$E32,"GC")</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>COUNTIF($D32:$E32,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f>COUNTIF($D32:$E32,"DNC")</f>
         <v>1</v>
       </c>
-      <c r="E16" s="29">
-        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B16)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B16)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B16)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B16)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <f>(COUNTIFS(F$31:F$35,Configuration!$B$3,$B$31:$B$35,$B16)*Configuration!$C$3) + (COUNTIFS(F$31:F$35,Configuration!$B$4,$B$31:$B$35,$B16)*Configuration!$C$4) + (COUNTIFS(F$31:F$35,Configuration!$B$5,$B$31:$B$35,$B16)*Configuration!$C$5) + (COUNTIFS(F$31:F$35,Configuration!$B$6,$B$31:$B$35,$B16)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <f>(COUNTIFS(G$31:G$35,Configuration!$B$3,$B$31:$B$35,$B16)*Configuration!$C$3) + (COUNTIFS(G$31:G$35,Configuration!$B$4,$B$31:$B$35,$B16)*Configuration!$C$4) + (COUNTIFS(G$31:G$35,Configuration!$B$5,$B$31:$B$35,$B16)*Configuration!$C$5) + (COUNTIFS(G$31:G$35,Configuration!$B$6,$B$31:$B$35,$B16)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <f>IF(SUM(D16:G16)=0, "N/A", SUM(D16:G16)/SUMIF(D16:G16,"&lt;&gt;0",D$25:G$25))</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I16" s="10" t="str" cm="1">
-        <f t="array" ref="I16">_xlfn.IFS(
-  H16 = Configuration!$B$6, Configuration!$B$6,
-  H16 &gt;= Configuration!$D$3, Configuration!$B$3,
-  H16 &lt; Configuration!$D$4, Configuration!$B$5,
+      <c r="J32" s="5">
+        <f>SUM(G32:I32)</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="46">
+        <f>IF(OR(J32=0, Configuration!$C$3=0), "N/A", ((G32*Configuration!$C$3) + (H32*Configuration!$C$4) + (I32*Configuration!$C$5)) / (J32*Configuration!$C$3))</f>
+        <v>0.2</v>
+      </c>
+      <c r="L32" s="8" t="str" cm="1">
+        <f t="array" ref="L32">_xlfn.IFS(
+  K32 = Configuration!$B$6, Configuration!$B$6,
+  K32 &gt;= Configuration!$D$3, Configuration!$B$3,
+  K32 &lt; Configuration!$D$4, Configuration!$B$5,
   TRUE, Configuration!$B$4
 )</f>
         <v>DNC</v>
       </c>
-      <c r="J16" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="54"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="28" t="s">
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="29">
-        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B17)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B17)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B17)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B17)*Configuration!$C$6)</f>
+      <c r="C33" s="24">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8" t="str">
+        <f>IFERROR(VLOOKUP($B33,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
+        <v>DNC</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="5">
+        <f>COUNTIF($D33:$E33,"GC")</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <f>COUNTIF($D33:$E33,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f>COUNTIF($D33:$E33,"DNC")</f>
         <v>1</v>
       </c>
-      <c r="E17" s="29">
-        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B17)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B17)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B17)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B17)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <f>(COUNTIFS(F$31:F$35,Configuration!$B$3,$B$31:$B$35,$B17)*Configuration!$C$3) + (COUNTIFS(F$31:F$35,Configuration!$B$4,$B$31:$B$35,$B17)*Configuration!$C$4) + (COUNTIFS(F$31:F$35,Configuration!$B$5,$B$31:$B$35,$B17)*Configuration!$C$5) + (COUNTIFS(F$31:F$35,Configuration!$B$6,$B$31:$B$35,$B17)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f>(COUNTIFS(G$31:G$35,Configuration!$B$3,$B$31:$B$35,$B17)*Configuration!$C$3) + (COUNTIFS(G$31:G$35,Configuration!$B$4,$B$31:$B$35,$B17)*Configuration!$C$4) + (COUNTIFS(G$31:G$35,Configuration!$B$5,$B$31:$B$35,$B17)*Configuration!$C$5) + (COUNTIFS(G$31:G$35,Configuration!$B$6,$B$31:$B$35,$B17)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <f>IF(SUM(D17:G17)=0, "N/A", SUM(D17:G17)/SUMIF(D17:G17,"&lt;&gt;0",D$25:G$25))</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I17" s="10" t="str" cm="1">
-        <f t="array" ref="I17">_xlfn.IFS(
-  H17 = Configuration!$B$6, Configuration!$B$6,
-  H17 &gt;= Configuration!$D$3, Configuration!$B$3,
-  H17 &lt; Configuration!$D$4, Configuration!$B$5,
+      <c r="J33" s="5">
+        <f>SUM(G33:I33)</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="46">
+        <f>IF(OR(J33=0, Configuration!$C$3=0), "N/A", ((G33*Configuration!$C$3) + (H33*Configuration!$C$4) + (I33*Configuration!$C$5)) / (J33*Configuration!$C$3))</f>
+        <v>0.2</v>
+      </c>
+      <c r="L33" s="8" t="str" cm="1">
+        <f t="array" ref="L33">_xlfn.IFS(
+  K33 = Configuration!$B$6, Configuration!$B$6,
+  K33 &gt;= Configuration!$D$3, Configuration!$B$3,
+  K33 &lt; Configuration!$D$4, Configuration!$B$5,
   TRUE, Configuration!$B$4
 )</f>
         <v>DNC</v>
       </c>
-      <c r="J17" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="54"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="28" t="s">
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="29">
-        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B18)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B18)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B18)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B18)*Configuration!$C$6)</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="29">
-        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B18)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B18)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B18)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B18)*Configuration!$C$6)</f>
+      <c r="C34" s="24">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f>IFERROR(VLOOKUP($B34,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
+        <v>GC</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="5">
+        <f>COUNTIF($D34:$E34,"GC")</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <f>COUNTIF($D34:$E34,"PC")</f>
         <v>0</v>
       </c>
-      <c r="F18" s="3">
-        <f>(COUNTIFS(F$31:F$35,Configuration!$B$3,$B$31:$B$35,$B18)*Configuration!$C$3) + (COUNTIFS(F$31:F$35,Configuration!$B$4,$B$31:$B$35,$B18)*Configuration!$C$4) + (COUNTIFS(F$31:F$35,Configuration!$B$5,$B$31:$B$35,$B18)*Configuration!$C$5) + (COUNTIFS(F$31:F$35,Configuration!$B$6,$B$31:$B$35,$B18)*Configuration!$C$6)</f>
+      <c r="I34" s="5">
+        <f>COUNTIF($D34:$E34,"DNC")</f>
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <f>(COUNTIFS(G$31:G$35,Configuration!$B$3,$B$31:$B$35,$B18)*Configuration!$C$3) + (COUNTIFS(G$31:G$35,Configuration!$B$4,$B$31:$B$35,$B18)*Configuration!$C$4) + (COUNTIFS(G$31:G$35,Configuration!$B$5,$B$31:$B$35,$B18)*Configuration!$C$5) + (COUNTIFS(G$31:G$35,Configuration!$B$6,$B$31:$B$35,$B18)*Configuration!$C$6)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <f>IF(SUM(D18:G18)=0, "N/A", SUM(D18:G18)/SUMIF(D18:G18,"&lt;&gt;0",D$25:G$25))</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I18" s="10" t="str" cm="1">
-        <f t="array" ref="I18">_xlfn.IFS(
-  H18 = Configuration!$B$6, Configuration!$B$6,
-  H18 &gt;= Configuration!$D$3, Configuration!$B$3,
-  H18 &lt; Configuration!$D$4, Configuration!$B$5,
+      <c r="J34" s="5">
+        <f>SUM(G34:I34)</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="46">
+        <f>IF(OR(J34=0, Configuration!$C$3=0), "N/A", ((G34*Configuration!$C$3) + (H34*Configuration!$C$4) + (I34*Configuration!$C$5)) / (J34*Configuration!$C$3))</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="8" t="str" cm="1">
+        <f t="array" ref="L34">_xlfn.IFS(
+  K34 = Configuration!$B$6, Configuration!$B$6,
+  K34 &gt;= Configuration!$D$3, Configuration!$B$3,
+  K34 &lt; Configuration!$D$4, Configuration!$B$5,
   TRUE, Configuration!$B$4
 )</f>
         <v>GC</v>
       </c>
-      <c r="J18" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="54"/>
-    </row>
-    <row r="21" spans="2:14" ht="18">
-      <c r="B21" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="18">
-      <c r="B22" s="23"/>
-      <c r="C22" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="2:14" ht="18">
-      <c r="B23" s="23"/>
-      <c r="C23" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="2:14" ht="18">
-      <c r="B24" s="23"/>
-      <c r="C24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="E24" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="F24" s="35">
-        <v>0</v>
-      </c>
-      <c r="G24" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="H24" s="34"/>
-    </row>
-    <row r="25" spans="2:14" ht="18">
-      <c r="B25" s="23"/>
-      <c r="C25" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="34">
-        <v>3</v>
-      </c>
-      <c r="E25" s="34">
-        <v>3</v>
-      </c>
-      <c r="F25" s="34">
-        <v>1</v>
-      </c>
-      <c r="G25" s="34">
-        <v>2</v>
-      </c>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="C26" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="C27" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="C28" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="C29" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-    </row>
-    <row r="30" spans="2:14" ht="38.25">
-      <c r="B30" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="32">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10" t="str">
-        <f>IFERROR(VLOOKUP($B31,'QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
-        <v>GC</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="7">
-        <f>COUNTIF($D31:$G31,"GC")</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="7">
-        <f>COUNTIF($D31:$G31,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
-        <f>COUNTIF($D31:$G31,"DNC")</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <f>SUM(I31:K31)</f>
-        <v>1</v>
-      </c>
-      <c r="M31" s="53">
-        <f>IF(OR(L31=0, Configuration!$C$3=0), "N/A", ((I31*Configuration!$C$3) + (J31*Configuration!$C$4) + (K31*Configuration!$C$5)) / (L31*Configuration!$C$3))</f>
-        <v>1</v>
-      </c>
-      <c r="N31" s="10" t="str" cm="1">
-        <f t="array" ref="N31">_xlfn.IFS(
-  M31 = Configuration!$B$6, Configuration!$B$6,
-  M31 &gt;= Configuration!$D$3, Configuration!$B$3,
-  M31 &lt; Configuration!$D$4, Configuration!$B$5,
-  TRUE, Configuration!$B$4
-)</f>
-        <v>GC</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="28">
-        <v>5</v>
-      </c>
-      <c r="D32" s="10" t="str">
-        <f>IFERROR(VLOOKUP($B32,'QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
-        <v>DNC</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="7">
-        <f>COUNTIF($D32:$G32,"GC")</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
-        <f>COUNTIF($D32:$G32,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="7">
-        <f>COUNTIF($D32:$G32,"DNC")</f>
-        <v>1</v>
-      </c>
-      <c r="L32" s="7">
-        <f>SUM(I32:K32)</f>
-        <v>1</v>
-      </c>
-      <c r="M32" s="53">
-        <f>IF(OR(L32=0, Configuration!$C$3=0), "N/A", ((I32*Configuration!$C$3) + (J32*Configuration!$C$4) + (K32*Configuration!$C$5)) / (L32*Configuration!$C$3))</f>
-        <v>0.2</v>
-      </c>
-      <c r="N32" s="10" t="str" cm="1">
-        <f t="array" ref="N32">_xlfn.IFS(
-  M32 = Configuration!$B$6, Configuration!$B$6,
-  M32 &gt;= Configuration!$D$3, Configuration!$B$3,
-  M32 &lt; Configuration!$D$4, Configuration!$B$5,
-  TRUE, Configuration!$B$4
-)</f>
-        <v>DNC</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="28">
-        <v>3</v>
-      </c>
-      <c r="D33" s="10" t="str">
-        <f>IFERROR(VLOOKUP($B33,'QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
-        <v>DNC</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="7">
-        <f>COUNTIF($D33:$G33,"GC")</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
-        <f>COUNTIF($D33:$G33,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <f>COUNTIF($D33:$G33,"DNC")</f>
-        <v>1</v>
-      </c>
-      <c r="L33" s="7">
-        <f>SUM(I33:K33)</f>
-        <v>1</v>
-      </c>
-      <c r="M33" s="53">
-        <f>IF(OR(L33=0, Configuration!$C$3=0), "N/A", ((I33*Configuration!$C$3) + (J33*Configuration!$C$4) + (K33*Configuration!$C$5)) / (L33*Configuration!$C$3))</f>
-        <v>0.2</v>
-      </c>
-      <c r="N33" s="10" t="str" cm="1">
-        <f t="array" ref="N33">_xlfn.IFS(
-  M33 = Configuration!$B$6, Configuration!$B$6,
-  M33 &gt;= Configuration!$D$3, Configuration!$B$3,
-  M33 &lt; Configuration!$D$4, Configuration!$B$5,
-  TRUE, Configuration!$B$4
-)</f>
-        <v>DNC</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="28">
-        <v>3</v>
-      </c>
-      <c r="D34" s="10" t="str">
-        <f>IFERROR(VLOOKUP($B34,'QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
-        <v>GC</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="7">
-        <f>COUNTIF($D34:$G34,"GC")</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="7">
-        <f>COUNTIF($D34:$G34,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
-        <f>COUNTIF($D34:$G34,"DNC")</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <f>SUM(I34:K34)</f>
-        <v>1</v>
-      </c>
-      <c r="M34" s="53">
-        <f>IF(OR(L34=0, Configuration!$C$3=0), "N/A", ((I34*Configuration!$C$3) + (J34*Configuration!$C$4) + (K34*Configuration!$C$5)) / (L34*Configuration!$C$3))</f>
-        <v>1</v>
-      </c>
-      <c r="N34" s="10" t="str" cm="1">
-        <f t="array" ref="N34">_xlfn.IFS(
-  M34 = Configuration!$B$6, Configuration!$B$6,
-  M34 &gt;= Configuration!$D$3, Configuration!$B$3,
-  M34 &lt; Configuration!$D$4, Configuration!$B$5,
-  TRUE, Configuration!$B$4
-)</f>
-        <v>GC</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D22:H28 D29:N29 D19:I21 D31:I1048576 D15:H18 D1:I9 D11:I13 D10:H10">
-    <cfRule type="containsText" dxfId="79" priority="45" operator="containsText" text="PC">
+  <conditionalFormatting sqref="D22:F28 D29:L29 D31:G1048576 D1:G13 D15:G21">
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="PC">
       <formula>NOT(ISERROR(SEARCH("PC",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="46" operator="containsText" text="DNC">
+    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="DNC">
       <formula>NOT(ISERROR(SEARCH("DNC",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="47" operator="containsText" text="GC">
+    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="GC">
       <formula>NOT(ISERROR(SEARCH("GC",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="48" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="40" priority="48" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J34">
-    <cfRule type="containsText" dxfId="67" priority="33" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",J31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="34" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",J31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="35" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",J31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="36" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",J31)))</formula>
+  <conditionalFormatting sqref="H31:L34">
+    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="PC">
+      <formula>NOT(ISERROR(SEARCH("PC",H31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="DNC">
+      <formula>NOT(ISERROR(SEARCH("DNC",H31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",H31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K34">
-    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",K31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="30" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",K31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="31" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",K31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="32" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",K31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L34">
-    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",L31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="26" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",L31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="27" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",L31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="28" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",L31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:M34">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",M31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="22" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",M31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="23" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",M31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="24" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",M31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N31:N34">
-    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",N31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",N31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",N31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="20" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",N31)))</formula>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="PC">
+      <formula>NOT(ISERROR(SEARCH("PC",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="DNC">
+      <formula>NOT(ISERROR(SEARCH("DNC",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I18">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="PC">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="PC">
       <formula>NOT(ISERROR(SEARCH("PC",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="DNC">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="DNC">
       <formula>NOT(ISERROR(SEARCH("DNC",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="GC">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="GC">
       <formula>NOT(ISERROR(SEARCH("GC",I15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",I15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",I10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",K10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",K10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",K10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",K10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K18">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",K15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",K15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",K15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3045,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBE9BBE-F28F-4813-9197-0D25502C0C38}">
   <dimension ref="B1:N66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3064,21 +2489,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="26.25">
-      <c r="B1" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>70</v>
+      <c r="B1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="48">
+      <c r="B2" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="42">
         <v>70</v>
       </c>
       <c r="D2" s="1"/>
@@ -3086,101 +2511,101 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="2:8" ht="53.25" customHeight="1">
+      <c r="B4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="2:8" ht="38.25" customHeight="1">
+      <c r="B5" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C5" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="2:8" ht="53.25" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="2:8" ht="39" customHeight="1">
+      <c r="B6" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="2:8" ht="38.25" customHeight="1">
-      <c r="B5" s="47" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="2:8" ht="69.75" customHeight="1">
+      <c r="B7" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="2:8" ht="39" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1">
+      <c r="B8" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C8" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="2:8" ht="69.75" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="2:8" ht="58.5" customHeight="1">
+      <c r="B9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C9" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1">
-      <c r="B8" s="47" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="45">
+      <c r="C10" s="39">
         <v>0.02</v>
       </c>
       <c r="D10" s="1"/>
@@ -3188,22 +2613,22 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="43"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="43"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:8" ht="18.75">
-      <c r="B13" s="42" t="s">
-        <v>87</v>
+      <c r="B13" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3211,939 +2636,939 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:8" ht="25.5">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="39" t="str">
+        <f t="shared" ref="C15:C21" si="0">$B$21</f>
+        <v>IAG Overall</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="45" t="str">
-        <f>$B$21</f>
-        <v>IAG Overall</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="E15" s="43">
         <f>COUNTIF($L:$L, "GC")</f>
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="45" t="str">
-        <f>$B$21</f>
+      <c r="B16" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D16" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="D16" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="43">
         <f>COUNTIF($L:$L, "PC")</f>
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="45" t="str">
-        <f>$B$21</f>
+      <c r="B17" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="D17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="43">
         <f>COUNTIF($L:$L, "DNC")</f>
         <v>2</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="45" t="str">
-        <f>$B$21</f>
+      <c r="B18" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D18" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="50">
+      <c r="D18" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="43">
         <f>COUNTIF($L:$L, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="45" t="str">
-        <f>$B$21</f>
+      <c r="B19" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="51">
+      <c r="D19" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="44">
         <f>IF((E15 + E16 + E17) = 0, "N/A", (E16 + E17) / (E15 + E16 + E17))</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="45" t="str">
-        <f>$B$21</f>
+      <c r="B20" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="52">
+      <c r="D20" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="45">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="45" t="str">
-        <f>$B$21</f>
+      <c r="B21" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="10" t="str">
+      <c r="D21" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="8" t="str">
         <f>IF(E19="N/A", "N/A", IF(E19&lt;=E20, "GC", "DNC"))</f>
         <v>DNC</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="43"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="46"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="43"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="46"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="18.75">
-      <c r="B24" s="42" t="s">
-        <v>100</v>
+      <c r="B24" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" ht="25.5">
-      <c r="B25" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>91</v>
+      <c r="B25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" outlineLevel="1">
-      <c r="B26" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="45" t="str">
+      <c r="B26" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="39" t="str">
         <f>$B$32</f>
         <v>Name1</v>
       </c>
-      <c r="D26" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="50">
+      <c r="D26" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="43">
         <f>COUNTIFS($B$61:$B$1000, C26, $L$61:$L$1000, "GC")</f>
         <v>2</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" outlineLevel="1">
-      <c r="B27" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="45" t="str">
-        <f t="shared" ref="C27:C53" si="0">$B$32</f>
+      <c r="B27" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="39" t="str">
+        <f t="shared" ref="C27:C32" si="1">$B$32</f>
         <v>Name1</v>
       </c>
-      <c r="D27" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="50">
+      <c r="D27" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="43">
         <f>COUNTIFS($B$61:$B$1000, C27, $L$61:$L$1000, "PC")</f>
         <v>0</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" outlineLevel="1">
-      <c r="B28" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="B28" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="39" t="str">
+        <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="50">
+      <c r="D28" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="43">
         <f>COUNTIFS($B$61:$B$1000, C28, $L$61:$L$1000, "DNC")</f>
         <v>0</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" outlineLevel="1">
-      <c r="B29" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="B29" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="39" t="str">
+        <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D29" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="50">
+      <c r="D29" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="43">
         <f>COUNTIFS($B$61:$B$1000, C29, $L$61:$L$1000, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" outlineLevel="1">
-      <c r="B30" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="B30" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="39" t="str">
+        <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D30" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="51">
+      <c r="D30" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="44">
         <f>IF((E26 + E27 + E28) = 0, "N/A", (E27 + E28) / (E26 + E27 + E28))</f>
         <v>0</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" outlineLevel="1">
-      <c r="B31" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="B31" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="39" t="str">
+        <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D31" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="52">
+      <c r="D31" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="45">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="C32" s="39" t="str">
+        <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D32" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="10" t="str">
+      <c r="D32" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="8" t="str">
         <f>IF(E30="N/A", "N/A", IF(E30&lt;=E31, "GC", "DNC"))</f>
         <v>GC</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" outlineLevel="1">
-      <c r="B33" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="45" t="str">
-        <f t="shared" ref="C33:C39" si="1">$B$39</f>
+      <c r="B33" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="39" t="str">
+        <f t="shared" ref="C33:C38" si="2">$B$39</f>
         <v>Name2</v>
       </c>
-      <c r="D33" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="50">
+      <c r="D33" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="43">
         <f>COUNTIFS($B$61:$B$1000, C33, $L$61:$L$1000, "GC")</f>
         <v>1</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6" outlineLevel="1">
-      <c r="B34" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="45" t="str">
-        <f t="shared" si="1"/>
+      <c r="B34" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="39" t="str">
+        <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D34" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="50">
+      <c r="D34" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="43">
         <f>COUNTIFS($B$61:$B$1000, C34, $L$61:$L$1000, "PC")</f>
         <v>0</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6" outlineLevel="1">
-      <c r="B35" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="45" t="str">
-        <f t="shared" si="1"/>
+      <c r="B35" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="39" t="str">
+        <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D35" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="50">
+      <c r="D35" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="43">
         <f>COUNTIFS($B$61:$B$1000, C35, $L$61:$L$1000, "DNC")</f>
         <v>1</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" outlineLevel="1">
-      <c r="B36" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="45" t="str">
-        <f t="shared" si="1"/>
+      <c r="B36" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="39" t="str">
+        <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D36" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="50">
+      <c r="D36" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="43">
         <f>COUNTIFS($B$61:$B$1000, C36, $L$61:$L$1000, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" outlineLevel="1">
-      <c r="B37" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="45" t="str">
-        <f t="shared" si="1"/>
+      <c r="B37" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="39" t="str">
+        <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D37" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="51">
+      <c r="D37" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="44">
         <f>IF((E33 + E34 + E35) = 0, "N/A", (E34 + E35) / (E33 + E34 + E35))</f>
         <v>0.5</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6" outlineLevel="1">
-      <c r="B38" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="45" t="str">
-        <f t="shared" si="1"/>
+      <c r="B38" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="39" t="str">
+        <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D38" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="52">
+      <c r="D38" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="45">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="45" t="str">
+      <c r="C39" s="39" t="str">
         <f>$B$39</f>
         <v>Name2</v>
       </c>
-      <c r="D39" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="10" t="str">
+      <c r="D39" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="8" t="str">
         <f>IF(E37="N/A", "N/A", IF(E37&lt;=E38, "GC", "DNC"))</f>
         <v>DNC</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6" outlineLevel="1">
-      <c r="B40" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="45" t="str">
+      <c r="B40" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="39" t="str">
         <f>$B$46</f>
         <v>Name3</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="50">
+      <c r="D40" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="43">
         <f>COUNTIFS($B$61:$B$1000, C40, $L$61:$L$1000, "GC")</f>
         <v>0</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6" outlineLevel="1">
-      <c r="B41" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="45" t="str">
-        <f t="shared" ref="C41:C46" si="2">$B$46</f>
+      <c r="B41" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="39" t="str">
+        <f t="shared" ref="C41:C46" si="3">$B$46</f>
         <v>Name3</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="50">
+      <c r="D41" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="43">
         <f>COUNTIFS($B$61:$B$1000, C41, $L$61:$L$1000, "PC")</f>
         <v>0</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6" outlineLevel="1">
-      <c r="B42" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="45" t="str">
-        <f t="shared" si="2"/>
+      <c r="B42" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="39" t="str">
+        <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D42" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="50">
+      <c r="D42" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="43">
         <f>COUNTIFS($B$61:$B$1000, C42, $L$61:$L$1000, "DNC")</f>
         <v>1</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6" outlineLevel="1">
-      <c r="B43" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="45" t="str">
-        <f t="shared" si="2"/>
+      <c r="B43" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="39" t="str">
+        <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D43" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="50">
+      <c r="D43" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="43">
         <f>COUNTIFS($B$61:$B$1000, C43, $L$61:$L$1000, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="2:6" outlineLevel="1">
-      <c r="B44" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="45" t="str">
-        <f t="shared" si="2"/>
+      <c r="B44" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="39" t="str">
+        <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D44" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="51">
+      <c r="D44" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="44">
         <f>IF((E40 + E41 + E42) = 0, "N/A", (E41 + E42) / (E40 + E41 + E42))</f>
         <v>1</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6" outlineLevel="1">
-      <c r="B45" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="45" t="str">
-        <f t="shared" si="2"/>
+      <c r="B45" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="39" t="str">
+        <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="52">
+      <c r="D45" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="45">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="45" t="str">
-        <f t="shared" si="2"/>
+      <c r="C46" s="39" t="str">
+        <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D46" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="10" t="str">
+      <c r="D46" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="8" t="str">
         <f>IF(E44="N/A", "N/A", IF(E44&lt;=E45, "GC", "DNC"))</f>
         <v>DNC</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6" outlineLevel="1">
-      <c r="B47" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="45" t="str">
+      <c r="B47" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="39" t="str">
         <f>$B$53</f>
         <v>Name4</v>
       </c>
-      <c r="D47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="50">
+      <c r="D47" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="43">
         <f>COUNTIFS($B$61:$B$1000, C47, $L$61:$L$1000, "GC")</f>
         <v>1</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6" outlineLevel="1">
-      <c r="B48" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="45" t="str">
-        <f t="shared" ref="C48:C53" si="3">$B$53</f>
+      <c r="B48" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="39" t="str">
+        <f t="shared" ref="C48:C53" si="4">$B$53</f>
         <v>Name4</v>
       </c>
-      <c r="D48" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="50">
+      <c r="D48" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="43">
         <f>COUNTIFS($B$61:$B$1000, C48, $L$61:$L$1000, "PC")</f>
         <v>0</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:14" outlineLevel="1">
-      <c r="B49" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="45" t="str">
-        <f t="shared" si="3"/>
+      <c r="B49" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="39" t="str">
+        <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D49" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="50">
+      <c r="D49" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="43">
         <f>COUNTIFS($B$61:$B$1000, C49, $L$61:$L$1000, "DNC")</f>
         <v>0</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:14" outlineLevel="1">
-      <c r="B50" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="45" t="str">
-        <f t="shared" si="3"/>
+      <c r="B50" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="39" t="str">
+        <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="50">
+      <c r="D50" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="43">
         <f>COUNTIFS($B$61:$B$1000, C50, $L$61:$L$1000, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:14" outlineLevel="1">
-      <c r="B51" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="45" t="str">
-        <f t="shared" si="3"/>
+      <c r="B51" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="39" t="str">
+        <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D51" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="51">
+      <c r="D51" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="44">
         <f>IF((E47 + E48 + E49) = 0, "N/A", (E48 + E49) / (E47 + E48 + E49))</f>
         <v>0</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:14" outlineLevel="1">
-      <c r="B52" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="45" t="str">
-        <f t="shared" si="3"/>
+      <c r="B52" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="39" t="str">
+        <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D52" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="52">
+      <c r="D52" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="45">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="45" t="str">
-        <f t="shared" si="3"/>
+      <c r="C53" s="39" t="str">
+        <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D53" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="10" t="str">
+      <c r="D53" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="8" t="str">
         <f>IF(E51="N/A", "N/A", IF(E51&lt;=E52, "GC", "DNC"))</f>
         <v>GC</v>
       </c>
       <c r="F53" s="1"/>
     </row>
     <row r="58" spans="2:14" ht="18">
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+    </row>
+    <row r="60" spans="2:14" ht="89.25">
+      <c r="B60" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="40" t="s">
+      <c r="F60" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-    </row>
-    <row r="60" spans="2:14" ht="89.25">
-      <c r="B60" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="26" t="s">
+      <c r="G60" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="H60" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="I60" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="J60" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="K60" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="H60" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="I60" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J60" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="K60" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="L60" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="M60" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="N60" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="36" t="s">
+      <c r="D61" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H61" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="H61" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="I61" s="10" t="str">
-        <f>IF(AND(OR(F61="High", F61="Critical", G61="High", G61="Critical"), H61=""), "DNC", "GC")</f>
+      <c r="I61" s="8" t="str">
+        <f t="shared" ref="I61:I66" si="5">IF(AND(OR(F61="High", F61="Critical", G61="High", G61="Critical"), H61=""), "DNC", "GC")</f>
         <v>GC</v>
       </c>
-      <c r="J61" s="10" t="str">
-        <f>IF(AND(H61&lt;&gt;"", F61="", G61=""), "DNC", "GC")</f>
+      <c r="J61" s="8" t="str">
+        <f t="shared" ref="J61:J66" si="6">IF(AND(H61&lt;&gt;"", F61="", G61=""), "DNC", "GC")</f>
         <v>GC</v>
       </c>
-      <c r="K61" s="37"/>
-      <c r="L61" s="10" t="str">
+      <c r="K61" s="33"/>
+      <c r="L61" s="8" t="str">
         <f>IF(OR(I61="DNC", J61="DNC"), "DNC", IF(AND(I61="GC", J61="GC"), "GC", "PC"))</f>
         <v>GC</v>
       </c>
-      <c r="M61" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="N61" s="37"/>
+      <c r="M61" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="N61" s="33"/>
     </row>
     <row r="62" spans="2:14" ht="30">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="36" t="s">
+      <c r="C62" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G62" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I62" s="10" t="str">
-        <f>IF(AND(OR(F62="High", F62="Critical", G62="High", G62="Critical"), H62=""), "DNC", "GC")</f>
+      <c r="G62" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f t="shared" si="5"/>
         <v>GC</v>
       </c>
-      <c r="J62" s="10" t="str">
-        <f>IF(AND(H62&lt;&gt;"", F62="", G62=""), "DNC", "GC")</f>
+      <c r="J62" s="8" t="str">
+        <f t="shared" si="6"/>
         <v>GC</v>
       </c>
-      <c r="K62" s="37"/>
-      <c r="L62" s="10" t="str">
+      <c r="K62" s="33"/>
+      <c r="L62" s="8" t="str">
         <f>IF(OR(I62="DNC", J62="DNC"), "DNC", IF(AND(I62="GC", J62="GC"), "GC", "PC"))</f>
         <v>GC</v>
       </c>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63" s="37" t="s">
+      <c r="C63" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="F63" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G63" s="37" t="s">
+      <c r="H63" s="32"/>
+      <c r="I63" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>DNC</v>
+      </c>
+      <c r="J63" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>GC</v>
+      </c>
+      <c r="K63" s="33"/>
+      <c r="L63" s="8" t="str">
+        <f t="shared" ref="L63:L66" si="7">IF(OR(I63="DNC", J63="DNC"), "DNC", IF(AND(I63="GC", J63="GC"), "GC", "PC"))</f>
+        <v>DNC</v>
+      </c>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+    </row>
+    <row r="64" spans="2:14" ht="30">
+      <c r="B64" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>GC</v>
+      </c>
+      <c r="J64" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>GC</v>
+      </c>
+      <c r="K64" s="33"/>
+      <c r="L64" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>GC</v>
+      </c>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+    </row>
+    <row r="65" spans="2:14" ht="30">
+      <c r="B65" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="10" t="str">
-        <f>IF(AND(OR(F63="High", F63="Critical", G63="High", G63="Critical"), H63=""), "DNC", "GC")</f>
+      <c r="I65" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>GC</v>
+      </c>
+      <c r="J65" s="8" t="str">
+        <f t="shared" si="6"/>
         <v>DNC</v>
       </c>
-      <c r="J63" s="10" t="str">
-        <f>IF(AND(H63&lt;&gt;"", F63="", G63=""), "DNC", "GC")</f>
+      <c r="K65" s="33"/>
+      <c r="L65" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>DNC</v>
+      </c>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="8" t="str">
+        <f t="shared" si="5"/>
         <v>GC</v>
       </c>
-      <c r="K63" s="37"/>
-      <c r="L63" s="10" t="str">
-        <f t="shared" ref="L63:L66" si="4">IF(OR(I63="DNC", J63="DNC"), "DNC", IF(AND(I63="GC", J63="GC"), "GC", "PC"))</f>
-        <v>DNC</v>
-      </c>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-    </row>
-    <row r="64" spans="2:14" ht="30">
-      <c r="B64" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H64" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="I64" s="10" t="str">
-        <f>IF(AND(OR(F64="High", F64="Critical", G64="High", G64="Critical"), H64=""), "DNC", "GC")</f>
+      <c r="J66" s="8" t="str">
+        <f t="shared" si="6"/>
         <v>GC</v>
       </c>
-      <c r="J64" s="10" t="str">
-        <f>IF(AND(H64&lt;&gt;"", F64="", G64=""), "DNC", "GC")</f>
+      <c r="K66" s="33"/>
+      <c r="L66" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>GC</v>
       </c>
-      <c r="K64" s="37"/>
-      <c r="L64" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>GC</v>
-      </c>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-    </row>
-    <row r="65" spans="2:14" ht="30">
-      <c r="B65" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I65" s="10" t="str">
-        <f>IF(AND(OR(F65="High", F65="Critical", G65="High", G65="Critical"), H65=""), "DNC", "GC")</f>
-        <v>GC</v>
-      </c>
-      <c r="J65" s="10" t="str">
-        <f>IF(AND(H65&lt;&gt;"", F65="", G65=""), "DNC", "GC")</f>
-        <v>DNC</v>
-      </c>
-      <c r="K65" s="37"/>
-      <c r="L65" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>DNC</v>
-      </c>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="10" t="str">
-        <f>IF(AND(OR(F66="High", F66="Critical", G66="High", G66="Critical"), H66=""), "DNC", "GC")</f>
-        <v>GC</v>
-      </c>
-      <c r="J66" s="10" t="str">
-        <f>IF(AND(H66&lt;&gt;"", F66="", G66=""), "DNC", "GC")</f>
-        <v>GC</v>
-      </c>
-      <c r="K66" s="37"/>
-      <c r="L66" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>GC</v>
-      </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4158,74 +3583,18 @@
     <mergeCell ref="C9:H9"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="I61:J66">
-    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",I61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",I61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",I61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",I61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L61:L66">
-    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",L61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",L61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",L61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",L61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",E53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",E46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",E46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",E39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",E39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",E39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",E39)))</formula>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="PC">
+      <formula>NOT(ISERROR(SEARCH("PC",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="DNC">
+      <formula>NOT(ISERROR(SEARCH("DNC",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
@@ -4242,18 +3611,74 @@
       <formula>NOT(ISERROR(SEARCH("N/A",E32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="PC">
-      <formula>NOT(ISERROR(SEARCH("PC",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="DNC">
-      <formula>NOT(ISERROR(SEARCH("DNC",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="GC">
-      <formula>NOT(ISERROR(SEARCH("GC",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",E21)))</formula>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="PC">
+      <formula>NOT(ISERROR(SEARCH("PC",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="DNC">
+      <formula>NOT(ISERROR(SEARCH("DNC",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",E39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="PC">
+      <formula>NOT(ISERROR(SEARCH("PC",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="DNC">
+      <formula>NOT(ISERROR(SEARCH("DNC",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",E46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="PC">
+      <formula>NOT(ISERROR(SEARCH("PC",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="DNC">
+      <formula>NOT(ISERROR(SEARCH("DNC",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="20" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:J66">
+    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="PC">
+      <formula>NOT(ISERROR(SEARCH("PC",I61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="DNC">
+      <formula>NOT(ISERROR(SEARCH("DNC",I61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="27" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",I61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="28" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",I61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61:L66">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="PC">
+      <formula>NOT(ISERROR(SEARCH("PC",L61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="DNC">
+      <formula>NOT(ISERROR(SEARCH("DNC",L61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="23" operator="containsText" text="GC">
+      <formula>NOT(ISERROR(SEARCH("GC",L61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="24" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",L61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4266,7 +3691,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4315,7 +3740,7 @@
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.8</v>
       </c>
       <c r="E3" s="2">
@@ -4333,7 +3758,7 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.5</v>
       </c>
       <c r="E4" s="2">
@@ -4351,7 +3776,7 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2">

--- a/Example Summary - IAG and AL Results and Ratings.xlsx
+++ b/Example Summary - IAG and AL Results and Ratings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee8d3d5c28cf10e6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luria\PycharmProjects\QAStudiov3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{83D477FB-218B-48C1-AA60-BCAB5F84907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50BC0E5-765A-452C-B7AF-ACC3A69DCD57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF080B-9BDE-4BC7-B67A-FD41ED28CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4027C12-BE58-4920-B07A-94405037821E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -815,7 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -841,9 +841,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,10 +1372,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1700,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D0754-8EF4-4F69-A15C-120EABD201FE}">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1720,25 +1713,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="27" customHeight="1">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="23" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1751,9 +1744,9 @@
         <f>SUM(D6:D8)</f>
         <v>18</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <f>SUM(E6:E8)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>35</v>
@@ -1766,7 +1759,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="9"/>
@@ -1776,7 +1769,7 @@
       </c>
       <c r="E6" s="8">
         <f>COUNTIF(E$31:E$34,"GC")*Configuration!$C3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>23</v>
@@ -1788,7 +1781,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="9"/>
@@ -1798,7 +1791,7 @@
       </c>
       <c r="E7" s="8">
         <f>COUNTIF(E$31:E$34,"GC")*Configuration!$C4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>23</v>
@@ -1810,7 +1803,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="9"/>
@@ -1820,7 +1813,7 @@
       </c>
       <c r="E8" s="8">
         <f>COUNTIF(E$31:E$34,"GC")*Configuration!$C5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>23</v>
@@ -1832,7 +1825,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="9"/>
@@ -1841,8 +1834,8 @@
         <v>4</v>
       </c>
       <c r="E9" s="8">
-        <f>COUNTIF(E31:E34,OR(NOT(_xleta.ISBLANK),"&lt;&gt;N/A"))</f>
-        <v>0</v>
+        <f>COUNTIF(E31:E34,"&lt;&gt;N/A")</f>
+        <v>4</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
@@ -1863,13 +1856,13 @@
         <f>IF(D9=0,"N/A",IFERROR(D5/D9,0))</f>
         <v>4.5</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="8">
         <f>IF(E9=0,"N/A",IFERROR(E5/E9,0))</f>
-        <v>N/A</v>
-      </c>
-      <c r="F10" s="8" t="str" cm="1">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="8" cm="1">
         <f t="array" ref="F10">IFERROR(SUM(D10:E10/COUNT(D10:E10)),"N/A")</f>
-        <v>N/A</v>
+        <v>4.5</v>
       </c>
       <c r="G10" s="8" t="str" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(
@@ -1878,9 +1871,9 @@
   F10 &lt; 2.5, "DNC",
   TRUE, "PC"
 )</f>
-        <v>N/A</v>
-      </c>
-      <c r="H10" s="47" t="s">
+        <v>GC</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>134</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1893,67 +1886,73 @@
         <v>31</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="19" t="str">
         <f>IF(D10="N/A",Configuration!C6, IF(D10&gt;3.9, "GC", IF(D10&lt;2.5, "DNC", "PC")))</f>
         <v>GC</v>
       </c>
-      <c r="E11" s="20" t="str">
+      <c r="E11" s="19" t="str">
         <f>IF(E10="N/A",Configuration!B6, IF(E10&gt;3.9, "GC", IF(E10&lt;2.5, "DNC", "PC")))</f>
-        <v>N/A</v>
+        <v>GC</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="18">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="2:10" ht="31.5" customHeight="1">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="25">
-        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B15)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B15)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B15)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B15)*Configuration!$C$6)</f>
+      <c r="D15" s="24">
+        <f>(COUNTIFS(D$31:D$35, "GC", $B$31:$B$35, $B15) * 5) +
+ (COUNTIFS(D$31:D$35, "PC", $B$31:$B$35, $B15) * 3) +
+ (COUNTIFS(D$31:D$35, "DNC", $B$31:$B$35, $B15) * 1) +
+ (COUNTIFS(D$31:D$35, "N/A", $B$31:$B$35, $B15) * 0)</f>
         <v>5</v>
       </c>
-      <c r="E15" s="25">
-        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B15)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B15)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B15)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B15)*Configuration!$C$6)</f>
-        <v>0</v>
+      <c r="E15" s="24">
+        <f t="shared" ref="E15:E18" si="0">(COUNTIFS(E$31:E$35, "GC", $B$31:$B$35, $B15) * 5) +
+ (COUNTIFS(E$31:E$35, "PC", $B$31:$B$35, $B15) * 3) +
+ (COUNTIFS(E$31:E$35, "DNC", $B$31:$B$35, $B15) * 1) +
+ (COUNTIFS(E$31:E$35, "N/A", $B$31:$B$35, $B15) * 0)</f>
+        <v>5</v>
       </c>
       <c r="F15" s="8">
         <f>IF(SUM(D15:E15)=0, "N/A", SUM(D15:E15)/SUMIF(D15:E15,"&lt;&gt;0",D$25:E$25))</f>
@@ -1968,28 +1967,31 @@
 )</f>
         <v>GC</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="46" t="s">
         <v>134</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="47"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="25">
-        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B16)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B16)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B16)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B16)*Configuration!$C$6)</f>
+      <c r="D16" s="24">
+        <f t="shared" ref="D16:D18" si="1">(COUNTIFS(D$31:D$35, "GC", $B$31:$B$35, $B16) * 5) +
+ (COUNTIFS(D$31:D$35, "PC", $B$31:$B$35, $B16) * 3) +
+ (COUNTIFS(D$31:D$35, "DNC", $B$31:$B$35, $B16) * 1) +
+ (COUNTIFS(D$31:D$35, "N/A", $B$31:$B$35, $B16) * 0)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="25">
-        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B16)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B16)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B16)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B16)*Configuration!$C$6)</f>
-        <v>0</v>
+      <c r="E16" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
         <f>IF(SUM(D16:E16)=0, "N/A", SUM(D16:E16)/SUMIF(D16:E16,"&lt;&gt;0",D$25:E$25))</f>
@@ -2004,28 +2006,28 @@
 )</f>
         <v>DNC</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="46" t="s">
         <v>134</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="47"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="25">
-        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B17)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B17)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B17)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B17)*Configuration!$C$6)</f>
+      <c r="D17" s="24">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E17" s="25">
-        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B17)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B17)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B17)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B17)*Configuration!$C$6)</f>
-        <v>0</v>
+      <c r="E17" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F17" s="8">
         <f>IF(SUM(D17:E17)=0, "N/A", SUM(D17:E17)/SUMIF(D17:E17,"&lt;&gt;0",D$25:E$25))</f>
@@ -2040,28 +2042,28 @@
 )</f>
         <v>DNC</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="46" t="s">
         <v>134</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="25">
-        <f>(COUNTIFS(D$31:D$35,Configuration!$B$3,$B$31:$B$35,$B18)*Configuration!$C$3) + (COUNTIFS(D$31:D$35,Configuration!$B$4,$B$31:$B$35,$B18)*Configuration!$C$4) + (COUNTIFS(D$31:D$35,Configuration!$B$5,$B$31:$B$35,$B18)*Configuration!$C$5) + (COUNTIFS(D$31:D$35,Configuration!$B$6,$B$31:$B$35,$B18)*Configuration!$C$6)</f>
+      <c r="D18" s="24">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E18" s="25">
-        <f>(COUNTIFS(E$31:E$35,Configuration!$B$3,$B$31:$B$35,$B18)*Configuration!$C$3) + (COUNTIFS(E$31:E$35,Configuration!$B$4,$B$31:$B$35,$B18)*Configuration!$C$4) + (COUNTIFS(E$31:E$35,Configuration!$B$5,$B$31:$B$35,$B18)*Configuration!$C$5) + (COUNTIFS(E$31:E$35,Configuration!$B$6,$B$31:$B$35,$B18)*Configuration!$C$6)</f>
-        <v>0</v>
+      <c r="E18" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F18" s="8">
         <f>IF(SUM(D18:E18)=0, "N/A", SUM(D18:E18)/SUMIF(D18:E18,"&lt;&gt;0",D$25:E$25))</f>
@@ -2076,175 +2078,178 @@
 )</f>
         <v>GC</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="46" t="s">
         <v>134</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="21" spans="2:12" ht="18">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="18">
-      <c r="B22" s="21"/>
-      <c r="C22" s="29" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="2:12" ht="18">
-      <c r="B23" s="21"/>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="2:12" ht="18">
-      <c r="B24" s="21"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <v>0.02</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <v>0.02</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="2:12" ht="18">
-      <c r="B25" s="21"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="29">
         <v>3</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>3</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="2:12" ht="38.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>0</v>
       </c>
       <c r="D31" s="8" t="str">
         <f>IFERROR(VLOOKUP($B31,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
         <v>GC</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8" t="str">
+        <f>IFERROR(VLOOKUP($B31,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
+        <v>GC</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5">
         <f>COUNTIF($D31:$E31,"GC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="5">
         <f>COUNTIF($D31:$E31,"PC")</f>
@@ -2256,9 +2261,9 @@
       </c>
       <c r="J31" s="5">
         <f>SUM(G31:I31)</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="46">
+        <v>2</v>
+      </c>
+      <c r="K31" s="45">
         <f>IF(OR(J31=0, Configuration!$C$3=0), "N/A", ((G31*Configuration!$C$3) + (H31*Configuration!$C$4) + (I31*Configuration!$C$5)) / (J31*Configuration!$C$3))</f>
         <v>1</v>
       </c>
@@ -2273,17 +2278,20 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>5</v>
       </c>
       <c r="D32" s="8" t="str">
         <f>IFERROR(VLOOKUP($B32,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
         <v>DNC</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8" t="str">
+        <f>IFERROR(VLOOKUP($B32,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
+        <v>DNC</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="5">
         <f>COUNTIF($D32:$E32,"GC")</f>
@@ -2295,13 +2303,13 @@
       </c>
       <c r="I32" s="5">
         <f>COUNTIF($D32:$E32,"DNC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="5">
         <f>SUM(G32:I32)</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="46">
+        <v>2</v>
+      </c>
+      <c r="K32" s="45">
         <f>IF(OR(J32=0, Configuration!$C$3=0), "N/A", ((G32*Configuration!$C$3) + (H32*Configuration!$C$4) + (I32*Configuration!$C$5)) / (J32*Configuration!$C$3))</f>
         <v>0.2</v>
       </c>
@@ -2316,17 +2324,20 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>3</v>
       </c>
       <c r="D33" s="8" t="str">
         <f>IFERROR(VLOOKUP($B33,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
         <v>DNC</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8" t="str">
+        <f>IFERROR(VLOOKUP($B33,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
+        <v>DNC</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="5">
         <f>COUNTIF($D33:$E33,"GC")</f>
@@ -2338,13 +2349,13 @@
       </c>
       <c r="I33" s="5">
         <f>COUNTIF($D33:$E33,"DNC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="5">
         <f>SUM(G33:I33)</f>
-        <v>1</v>
-      </c>
-      <c r="K33" s="46">
+        <v>2</v>
+      </c>
+      <c r="K33" s="45">
         <f>IF(OR(J33=0, Configuration!$C$3=0), "N/A", ((G33*Configuration!$C$3) + (H33*Configuration!$C$4) + (I33*Configuration!$C$5)) / (J33*Configuration!$C$3))</f>
         <v>0.2</v>
       </c>
@@ -2359,21 +2370,24 @@
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="23">
         <v>3</v>
       </c>
       <c r="D34" s="8" t="str">
         <f>IFERROR(VLOOKUP($B34,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
         <v>GC</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8" t="str">
+        <f>IFERROR(VLOOKUP($B34,'EXAMPLE Test Summary - QA-ID-70'!$B$25:$E$53,4,0),"N/A")</f>
+        <v>GC</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5">
         <f>COUNTIF($D34:$E34,"GC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="5">
         <f>COUNTIF($D34:$E34,"PC")</f>
@@ -2385,9 +2399,9 @@
       </c>
       <c r="J34" s="5">
         <f>SUM(G34:I34)</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="46">
+        <v>2</v>
+      </c>
+      <c r="K34" s="45">
         <f>IF(OR(J34=0, Configuration!$C$3=0), "N/A", ((G34*Configuration!$C$3) + (H34*Configuration!$C$4) + (I34*Configuration!$C$5)) / (J34*Configuration!$C$3))</f>
         <v>1</v>
       </c>
@@ -2406,7 +2420,7 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F13:G13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D22:F28 D29:L29 D31:G1048576 D1:G13 D15:G21">
+  <conditionalFormatting sqref="D22:F28 D29:L29 D1:G13 D15:G21 D31:G1048576">
     <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="PC">
       <formula>NOT(ISERROR(SEARCH("PC",D1)))</formula>
     </cfRule>
@@ -2489,10 +2503,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="26.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>136</v>
       </c>
       <c r="D1" s="1"/>
@@ -2500,10 +2514,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>70</v>
       </c>
       <c r="D2" s="1"/>
@@ -2511,101 +2525,101 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="2:8" ht="53.25" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="2:8" ht="38.25" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="2:8" ht="39" customHeight="1">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" ht="69.75" customHeight="1">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>0.02</v>
       </c>
       <c r="D10" s="1"/>
@@ -2613,21 +2627,21 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="37"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="37"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:8" ht="18.75">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="1"/>
@@ -2636,131 +2650,131 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:8" ht="25.5">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="39" t="str">
+      <c r="C15" s="38" t="str">
         <f t="shared" ref="C15:C21" si="0">$B$21</f>
         <v>IAG Overall</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <f>COUNTIF($L:$L, "GC")</f>
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="39" t="str">
+      <c r="C16" s="38" t="str">
         <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <f>COUNTIF($L:$L, "PC")</f>
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="39" t="str">
+      <c r="C17" s="38" t="str">
         <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="42">
         <f>COUNTIF($L:$L, "DNC")</f>
         <v>2</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="39" t="str">
+      <c r="C18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <f>COUNTIF($L:$L, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="39" t="str">
+      <c r="C19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <f>IF((E15 + E16 + E17) = 0, "N/A", (E16 + E17) / (E15 + E16 + E17))</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="39" t="str">
+      <c r="C20" s="38" t="str">
         <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="44">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="39" t="str">
+      <c r="C21" s="38" t="str">
         <f t="shared" si="0"/>
         <v>IAG Overall</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>93</v>
       </c>
       <c r="E21" s="8" t="str">
@@ -2770,154 +2784,154 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="37"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="37"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="18.75">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" ht="25.5">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" outlineLevel="1">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="39" t="str">
+      <c r="C26" s="38" t="str">
         <f>$B$32</f>
         <v>Name1</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="42">
         <f>COUNTIFS($B$61:$B$1000, C26, $L$61:$L$1000, "GC")</f>
         <v>2</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" outlineLevel="1">
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="39" t="str">
+      <c r="C27" s="38" t="str">
         <f t="shared" ref="C27:C32" si="1">$B$32</f>
         <v>Name1</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="42">
         <f>COUNTIFS($B$61:$B$1000, C27, $L$61:$L$1000, "PC")</f>
         <v>0</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" outlineLevel="1">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="39" t="str">
+      <c r="C28" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="42">
         <f>COUNTIFS($B$61:$B$1000, C28, $L$61:$L$1000, "DNC")</f>
         <v>0</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" outlineLevel="1">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="39" t="str">
+      <c r="C29" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="42">
         <f>COUNTIFS($B$61:$B$1000, C29, $L$61:$L$1000, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" outlineLevel="1">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="39" t="str">
+      <c r="C30" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="43">
         <f>IF((E26 + E27 + E28) = 0, "N/A", (E27 + E28) / (E26 + E27 + E28))</f>
         <v>0</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" outlineLevel="1">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="39" t="str">
+      <c r="C31" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="44">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="39" t="str">
+      <c r="C32" s="38" t="str">
         <f t="shared" si="1"/>
         <v>Name1</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="40" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="8" t="str">
@@ -2927,116 +2941,116 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" outlineLevel="1">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="39" t="str">
+      <c r="C33" s="38" t="str">
         <f t="shared" ref="C33:C38" si="2">$B$39</f>
         <v>Name2</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="42">
         <f>COUNTIFS($B$61:$B$1000, C33, $L$61:$L$1000, "GC")</f>
         <v>1</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6" outlineLevel="1">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="39" t="str">
+      <c r="C34" s="38" t="str">
         <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <f>COUNTIFS($B$61:$B$1000, C34, $L$61:$L$1000, "PC")</f>
         <v>0</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6" outlineLevel="1">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="39" t="str">
+      <c r="C35" s="38" t="str">
         <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="42">
         <f>COUNTIFS($B$61:$B$1000, C35, $L$61:$L$1000, "DNC")</f>
         <v>1</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" outlineLevel="1">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="39" t="str">
+      <c r="C36" s="38" t="str">
         <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="42">
         <f>COUNTIFS($B$61:$B$1000, C36, $L$61:$L$1000, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" outlineLevel="1">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="39" t="str">
+      <c r="C37" s="38" t="str">
         <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="43">
         <f>IF((E33 + E34 + E35) = 0, "N/A", (E34 + E35) / (E33 + E34 + E35))</f>
         <v>0.5</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6" outlineLevel="1">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="39" t="str">
+      <c r="C38" s="38" t="str">
         <f t="shared" si="2"/>
         <v>Name2</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="44">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="39" t="str">
+      <c r="C39" s="38" t="str">
         <f>$B$39</f>
         <v>Name2</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="40" t="s">
         <v>93</v>
       </c>
       <c r="E39" s="8" t="str">
@@ -3046,116 +3060,116 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6" outlineLevel="1">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="39" t="str">
+      <c r="C40" s="38" t="str">
         <f>$B$46</f>
         <v>Name3</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="42">
         <f>COUNTIFS($B$61:$B$1000, C40, $L$61:$L$1000, "GC")</f>
         <v>0</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6" outlineLevel="1">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="39" t="str">
+      <c r="C41" s="38" t="str">
         <f t="shared" ref="C41:C46" si="3">$B$46</f>
         <v>Name3</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="42">
         <f>COUNTIFS($B$61:$B$1000, C41, $L$61:$L$1000, "PC")</f>
         <v>0</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6" outlineLevel="1">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="39" t="str">
+      <c r="C42" s="38" t="str">
         <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="42">
         <f>COUNTIFS($B$61:$B$1000, C42, $L$61:$L$1000, "DNC")</f>
         <v>1</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6" outlineLevel="1">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="39" t="str">
+      <c r="C43" s="38" t="str">
         <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="42">
         <f>COUNTIFS($B$61:$B$1000, C43, $L$61:$L$1000, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="2:6" outlineLevel="1">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="39" t="str">
+      <c r="C44" s="38" t="str">
         <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="43">
         <f>IF((E40 + E41 + E42) = 0, "N/A", (E41 + E42) / (E40 + E41 + E42))</f>
         <v>1</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6" outlineLevel="1">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="39" t="str">
+      <c r="C45" s="38" t="str">
         <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="44">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="39" t="str">
+      <c r="C46" s="38" t="str">
         <f t="shared" si="3"/>
         <v>Name3</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="40" t="s">
         <v>93</v>
       </c>
       <c r="E46" s="8" t="str">
@@ -3165,116 +3179,116 @@
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6" outlineLevel="1">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="39" t="str">
+      <c r="C47" s="38" t="str">
         <f>$B$53</f>
         <v>Name4</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="42">
         <f>COUNTIFS($B$61:$B$1000, C47, $L$61:$L$1000, "GC")</f>
         <v>1</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6" outlineLevel="1">
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="39" t="str">
+      <c r="C48" s="38" t="str">
         <f t="shared" ref="C48:C53" si="4">$B$53</f>
         <v>Name4</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="42">
         <f>COUNTIFS($B$61:$B$1000, C48, $L$61:$L$1000, "PC")</f>
         <v>0</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:14" outlineLevel="1">
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="39" t="str">
+      <c r="C49" s="38" t="str">
         <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="42">
         <f>COUNTIFS($B$61:$B$1000, C49, $L$61:$L$1000, "DNC")</f>
         <v>0</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:14" outlineLevel="1">
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="39" t="str">
+      <c r="C50" s="38" t="str">
         <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="42">
         <f>COUNTIFS($B$61:$B$1000, C50, $L$61:$L$1000, "N/A")</f>
         <v>0</v>
       </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:14" outlineLevel="1">
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="39" t="str">
+      <c r="C51" s="38" t="str">
         <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="44">
+      <c r="E51" s="43">
         <f>IF((E47 + E48 + E49) = 0, "N/A", (E48 + E49) / (E47 + E48 + E49))</f>
         <v>0</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:14" outlineLevel="1">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="39" t="str">
+      <c r="C52" s="38" t="str">
         <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="44">
         <f>$C$10</f>
         <v>0.02</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="39" t="str">
+      <c r="C53" s="38" t="str">
         <f t="shared" si="4"/>
         <v>Name4</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="8" t="str">
@@ -3284,90 +3298,90 @@
       <c r="F53" s="1"/>
     </row>
     <row r="58" spans="2:14" ht="18">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="50" t="s">
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
     </row>
     <row r="60" spans="2:14" ht="89.25">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="H60" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I60" s="35" t="s">
+      <c r="I60" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="J60" s="35" t="s">
+      <c r="J60" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="K60" s="34" t="s">
+      <c r="K60" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="L60" s="23" t="s">
+      <c r="L60" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="M60" s="23" t="s">
+      <c r="M60" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="N60" s="23" t="s">
+      <c r="N60" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="32" t="s">
+      <c r="G61" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H61" s="31" t="s">
         <v>124</v>
       </c>
       <c r="I61" s="8" t="str">
@@ -3378,36 +3392,36 @@
         <f t="shared" ref="J61:J66" si="6">IF(AND(H61&lt;&gt;"", F61="", G61=""), "DNC", "GC")</f>
         <v>GC</v>
       </c>
-      <c r="K61" s="33"/>
+      <c r="K61" s="32"/>
       <c r="L61" s="8" t="str">
         <f>IF(OR(I61="DNC", J61="DNC"), "DNC", IF(AND(I61="GC", J61="GC"), "GC", "PC"))</f>
         <v>GC</v>
       </c>
-      <c r="M61" s="33" t="s">
+      <c r="M61" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="N61" s="33"/>
+      <c r="N61" s="32"/>
     </row>
     <row r="62" spans="2:14" ht="30">
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F62" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H62" s="31" t="s">
         <v>125</v>
       </c>
       <c r="I62" s="8" t="str">
@@ -3418,34 +3432,34 @@
         <f t="shared" si="6"/>
         <v>GC</v>
       </c>
-      <c r="K62" s="33"/>
+      <c r="K62" s="32"/>
       <c r="L62" s="8" t="str">
         <f>IF(OR(I62="DNC", J62="DNC"), "DNC", IF(AND(I62="GC", J62="GC"), "GC", "PC"))</f>
         <v>GC</v>
       </c>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H63" s="32"/>
+      <c r="H63" s="31"/>
       <c r="I63" s="8" t="str">
         <f t="shared" si="5"/>
         <v>DNC</v>
@@ -3454,34 +3468,34 @@
         <f t="shared" si="6"/>
         <v>GC</v>
       </c>
-      <c r="K63" s="33"/>
+      <c r="K63" s="32"/>
       <c r="L63" s="8" t="str">
         <f t="shared" ref="L63:L66" si="7">IF(OR(I63="DNC", J63="DNC"), "DNC", IF(AND(I63="GC", J63="GC"), "GC", "PC"))</f>
         <v>DNC</v>
       </c>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
     </row>
     <row r="64" spans="2:14" ht="30">
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="G64" s="33" t="s">
+      <c r="G64" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H64" s="31" t="s">
         <v>126</v>
       </c>
       <c r="I64" s="8" t="str">
@@ -3492,30 +3506,30 @@
         <f t="shared" si="6"/>
         <v>GC</v>
       </c>
-      <c r="K64" s="33"/>
+      <c r="K64" s="32"/>
       <c r="L64" s="8" t="str">
         <f t="shared" si="7"/>
         <v>GC</v>
       </c>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
     </row>
     <row r="65" spans="2:14" ht="30">
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="32" t="s">
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="31" t="s">
         <v>127</v>
       </c>
       <c r="I65" s="8" t="str">
@@ -3526,34 +3540,34 @@
         <f t="shared" si="6"/>
         <v>DNC</v>
       </c>
-      <c r="K65" s="33"/>
+      <c r="K65" s="32"/>
       <c r="L65" s="8" t="str">
         <f t="shared" si="7"/>
         <v>DNC</v>
       </c>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="33" t="s">
+      <c r="F66" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="G66" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H66" s="32"/>
+      <c r="H66" s="31"/>
       <c r="I66" s="8" t="str">
         <f t="shared" si="5"/>
         <v>GC</v>
@@ -3562,13 +3576,13 @@
         <f t="shared" si="6"/>
         <v>GC</v>
       </c>
-      <c r="K66" s="33"/>
+      <c r="K66" s="32"/>
       <c r="L66" s="8" t="str">
         <f t="shared" si="7"/>
         <v>GC</v>
       </c>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3691,7 +3705,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
